--- a/apcd_to_omop_etl_specs.xlsx
+++ b/apcd_to_omop_etl_specs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="42">
   <si>
     <t>bigint</t>
   </si>
@@ -126,6 +126,30 @@
   </si>
   <si>
     <t>rch.me.patkey</t>
+  </si>
+  <si>
+    <t>cdm.concept.concept_id</t>
+  </si>
+  <si>
+    <t>SELECT c.concept_id, c.concept_name FROM cdm.concept c WHERE c.concept_class_id = 'Gender' AND c.standard_concept = 'S'</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>=0</t>
+  </si>
+  <si>
+    <t>gender value from source</t>
+  </si>
+  <si>
+    <t>rch.me.gender</t>
+  </si>
+  <si>
+    <t>varchar (1)</t>
+  </si>
+  <si>
+    <t>rch.me.birthyear</t>
   </si>
 </sst>
 </file>
@@ -161,13 +185,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -190,7 +219,7 @@
     <tableColumn id="4" name="dest_column_name"/>
     <tableColumn id="5" name="dest_data_type"/>
     <tableColumn id="6" name="dest_is_nullable"/>
-    <tableColumn id="7" name="transformations"/>
+    <tableColumn id="7" name="transformations" dataDxfId="0"/>
     <tableColumn id="8" name="comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -463,7 +492,7 @@
   <dimension ref="B2:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,7 +505,7 @@
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
     <col min="8" max="8" width="20.5546875" customWidth="1"/>
-    <col min="9" max="9" width="18.21875" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
@@ -526,6 +555,15 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
@@ -535,8 +573,14 @@
       <c r="G4" t="s">
         <v>1</v>
       </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
@@ -548,6 +592,9 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
@@ -557,8 +604,14 @@
       <c r="G6" t="s">
         <v>3</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
@@ -568,8 +621,14 @@
       <c r="G7" t="s">
         <v>3</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
@@ -579,8 +638,14 @@
       <c r="G8" t="s">
         <v>3</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
@@ -590,8 +655,14 @@
       <c r="G9" t="s">
         <v>3</v>
       </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
@@ -601,8 +672,14 @@
       <c r="G10" t="s">
         <v>1</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
       <c r="E11" t="s">
         <v>19</v>
       </c>
@@ -611,6 +688,9 @@
       </c>
       <c r="G11" t="s">
         <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
@@ -647,6 +727,15 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
       <c r="E15" t="s">
         <v>23</v>
       </c>
@@ -656,8 +745,18 @@
       <c r="G15" t="s">
         <v>3</v>
       </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
       <c r="E16" t="s">
         <v>25</v>
       </c>
@@ -667,8 +766,20 @@
       <c r="G16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
       <c r="E17" t="s">
         <v>26</v>
       </c>
@@ -679,7 +790,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
       <c r="E18" t="s">
         <v>27</v>
       </c>
@@ -689,8 +803,14 @@
       <c r="G18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
       <c r="E19" t="s">
         <v>28</v>
       </c>
@@ -700,8 +820,14 @@
       <c r="G19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
       <c r="E20" t="s">
         <v>29</v>
       </c>
@@ -711,8 +837,14 @@
       <c r="G20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
       <c r="E21" t="s">
         <v>30</v>
       </c>
@@ -722,11 +854,15 @@
       <c r="G21" t="s">
         <v>1</v>
       </c>
+      <c r="H21" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/apcd_to_omop_etl_specs.xlsx
+++ b/apcd_to_omop_etl_specs.xlsx
@@ -492,7 +492,7 @@
   <dimension ref="B2:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
